--- a/Results/von_b_Bayes_estiamtes.xlsx
+++ b/Results/von_b_Bayes_estiamtes.xlsx
@@ -395,16 +395,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>645.208479308098</v>
+        <v>648.930859850872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.115956924236292</v>
+        <v>0.11453660171091</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.742270053052045</v>
+        <v>-0.755966662282231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14228746370273</v>
+        <v>0.142228691170172</v>
       </c>
     </row>
     <row r="3">
@@ -412,16 +412,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>54.5146829886249</v>
+        <v>54.513852568982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0206071449425693</v>
+        <v>0.0199722020071865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.341227183683534</v>
+        <v>0.331916692003444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0102610384091158</v>
+        <v>0.0100683144485833</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>641.649894444063</v>
+        <v>645.066273779208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.113123823108222</v>
+        <v>0.111768539912087</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.788669290721002</v>
+        <v>-0.804063214381949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.141467710982822</v>
+        <v>0.141746291285929</v>
       </c>
     </row>
     <row r="5">
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>547.142416118204</v>
+        <v>550.292866487538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0843313147279965</v>
+        <v>0.0840435288880343</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.22778889235418</v>
+        <v>-1.22691701212159</v>
       </c>
       <c r="E5" t="n">
-        <v>0.124066691025509</v>
+        <v>0.124188874628153</v>
       </c>
     </row>
     <row r="6">
@@ -463,16 +463,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>761.355273154238</v>
+        <v>763.965557562387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164409967970564</v>
+        <v>0.161273085631526</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0274103148503494</v>
+        <v>-0.0237801382135312</v>
       </c>
       <c r="E6" t="n">
-        <v>0.164250682387214</v>
+        <v>0.163466446193853</v>
       </c>
     </row>
   </sheetData>
